--- a/biology/Histoire de la zoologie et de la botanique/Heinrich_Carl_Küster/Heinrich_Carl_Küster.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Heinrich_Carl_Küster/Heinrich_Carl_Küster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Heinrich_Carl_K%C3%BCster</t>
+          <t>Heinrich_Carl_Küster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heinrich-Carl Küster, né le 14 février 1807 et mort en avril 1876, était un malacologiste et entomologiste bavarois[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heinrich-Carl Küster, né le 14 février 1807 et mort en avril 1876, était un malacologiste et entomologiste bavarois.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Heinrich_Carl_K%C3%BCster</t>
+          <t>Heinrich_Carl_Küster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie sommaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vers 1836, il est enseignant dans une école de commerce d’Erlangen. Il mène des expéditions scientifiques en Sardaigne (1831), en Dalmatie et au Monténégro (1840–41)[2].
-Il a entrepris la rédaction d'une somme en plusieurs volumes sur « Les punaises d'Europe dépeintes au naturel » (Die Käfer Europas, nach der Natur beschrieben, 1844-1912) qui sera poursuivie par Ernst Gustav Kraatz et Friedrich Julius Schilsky. Il a exécuté les planches illustrant l’essai ornithologique de Carl Wilhelm Hahn, « Les oiseaux d'Asie d'Afrique, d'Amérique et de Nouvelle-Hollande en images, décrits au naturel » (Voegel, aus Asien, Africa, America, und Neuholland, in Abbildungen nach der Natur mit Beschreibungen[3]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers 1836, il est enseignant dans une école de commerce d’Erlangen. Il mène des expéditions scientifiques en Sardaigne (1831), en Dalmatie et au Monténégro (1840–41).
+Il a entrepris la rédaction d'une somme en plusieurs volumes sur « Les punaises d'Europe dépeintes au naturel » (Die Käfer Europas, nach der Natur beschrieben, 1844-1912) qui sera poursuivie par Ernst Gustav Kraatz et Friedrich Julius Schilsky. Il a exécuté les planches illustrant l’essai ornithologique de Carl Wilhelm Hahn, « Les oiseaux d'Asie d'Afrique, d'Amérique et de Nouvelle-Hollande en images, décrits au naturel » (Voegel, aus Asien, Africa, America, und Neuholland, in Abbildungen nach der Natur mit Beschreibungen).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Heinrich_Carl_K%C3%BCster</t>
+          <t>Heinrich_Carl_Küster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Die Ohrschnecken in Abbildungen nach der Natur mit Beschreibungen, Bauer &amp; Raspe, Nuremberg (1844) – Illustrations et description des mollusques du genre haliotis.
 Die Bulimiden und Achatinen in Abbildungen nach der Natur mit Beschreibungen, Bauer &amp; Raspe, Nuremberg (1845 – Illustrations et description des mollusques du genre Bulimidae et Achatinidae.
